--- a/result/interactions_download/EXCEL/Gastric_cancer_only_precog_mut.xlsx
+++ b/result/interactions_download/EXCEL/Gastric_cancer_only_precog_mut.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">gene_list</t>
   </si>
@@ -51,10 +51,13 @@
     <t xml:space="preserve">HSPA6</t>
   </si>
   <si>
+    <t xml:space="preserve">RPL37A</t>
+  </si>
+  <si>
     <t xml:space="preserve">CENPA</t>
   </si>
   <si>
-    <t xml:space="preserve">RPL37A</t>
+    <t xml:space="preserve">RPF2</t>
   </si>
   <si>
     <t xml:space="preserve">FGD5</t>
@@ -63,9 +66,6 @@
     <t xml:space="preserve">DCAF4</t>
   </si>
   <si>
-    <t xml:space="preserve">RPF2</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFC5</t>
   </si>
   <si>
@@ -78,18 +78,18 @@
     <t xml:space="preserve">HSPA1B</t>
   </si>
   <si>
+    <t xml:space="preserve">MRPS14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUFSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">KIF4A</t>
   </si>
   <si>
     <t xml:space="preserve">THOC6</t>
   </si>
   <si>
-    <t xml:space="preserve">ZUFSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRPS14</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOMM20</t>
   </si>
   <si>
@@ -111,37 +111,46 @@
     <t xml:space="preserve">RFWD3</t>
   </si>
   <si>
+    <t xml:space="preserve">DSTN</t>
+  </si>
+  <si>
     <t xml:space="preserve">EFHD2</t>
   </si>
   <si>
-    <t xml:space="preserve">DSTN</t>
-  </si>
-  <si>
     <t xml:space="preserve">MRPL10</t>
   </si>
   <si>
+    <t xml:space="preserve">VPS45</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDT1</t>
   </si>
   <si>
-    <t xml:space="preserve">VPS45</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZNF280C</t>
   </si>
   <si>
+    <t xml:space="preserve">TSPYL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL6IP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNNT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">GINS4</t>
   </si>
   <si>
-    <t xml:space="preserve">TSPYL5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORC6</t>
   </si>
   <si>
-    <t xml:space="preserve">TNNT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARL6IP5</t>
+    <t xml:space="preserve">PTPN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUDCD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS19BP1</t>
   </si>
   <si>
     <t xml:space="preserve">COG4</t>
@@ -150,15 +159,6 @@
     <t xml:space="preserve">ZNF414</t>
   </si>
   <si>
-    <t xml:space="preserve">PTPN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUDCD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPS19BP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">MANF</t>
   </si>
   <si>
@@ -168,21 +168,21 @@
     <t xml:space="preserve">CENPK</t>
   </si>
   <si>
+    <t xml:space="preserve">PDZD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC3B</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNUPN</t>
   </si>
   <si>
     <t xml:space="preserve">KIF18A</t>
   </si>
   <si>
-    <t xml:space="preserve">APOBEC3B</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCBP4</t>
   </si>
   <si>
-    <t xml:space="preserve">PDZD11</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPCDC</t>
   </si>
   <si>
@@ -192,6 +192,9 @@
     <t xml:space="preserve">PI4K2B</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF227</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSMC3IP</t>
   </si>
   <si>
@@ -210,21 +213,24 @@
     <t xml:space="preserve">AKR7A3</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC48A1</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAM170A</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF227</t>
+    <t xml:space="preserve">KRTAP5-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIBC2</t>
   </si>
   <si>
     <t xml:space="preserve">SPRYD3</t>
   </si>
   <si>
-    <t xml:space="preserve">CCNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIBC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">MB</t>
   </si>
   <si>
@@ -234,12 +240,6 @@
     <t xml:space="preserve">FXYD6</t>
   </si>
   <si>
-    <t xml:space="preserve">KRTAP5-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC48A1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PKIA</t>
   </si>
   <si>
@@ -267,13 +267,19 @@
     <t xml:space="preserve">PNMAL2</t>
   </si>
   <si>
+    <t xml:space="preserve">TRIM59</t>
+  </si>
+  <si>
     <t xml:space="preserve">SELM</t>
   </si>
   <si>
+    <t xml:space="preserve">FAM163A</t>
+  </si>
+  <si>
     <t xml:space="preserve">FBXL20</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIM59</t>
+    <t xml:space="preserve">LOC153684</t>
   </si>
   <si>
     <t xml:space="preserve">CCL18</t>
@@ -288,7 +294,10 @@
     <t xml:space="preserve">SIDT2</t>
   </si>
   <si>
-    <t xml:space="preserve">FAM163A</t>
+    <t xml:space="preserve">TMEM179B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD14A</t>
   </si>
   <si>
     <t xml:space="preserve">TMSB15A</t>
@@ -306,9 +315,6 @@
     <t xml:space="preserve">LOC100128361</t>
   </si>
   <si>
-    <t xml:space="preserve">TMEM179B</t>
-  </si>
-  <si>
     <t xml:space="preserve">FLJ20021</t>
   </si>
   <si>
@@ -339,15 +345,9 @@
     <t xml:space="preserve">FAM104B</t>
   </si>
   <si>
-    <t xml:space="preserve">LOC153684</t>
-  </si>
-  <si>
     <t xml:space="preserve">OR8D1</t>
   </si>
   <si>
-    <t xml:space="preserve">ABHD14A</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCL21</t>
   </si>
   <si>
@@ -411,6 +411,9 @@
     <t xml:space="preserve">HSP90AA1</t>
   </si>
   <si>
+    <t xml:space="preserve">SEC62</t>
+  </si>
+  <si>
     <t xml:space="preserve">IKZF1</t>
   </si>
   <si>
@@ -478,6 +481,9 @@
   </si>
   <si>
     <t xml:space="preserve">FBXO7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR</t>
   </si>
   <si>
     <t xml:space="preserve">GNL3</t>
@@ -861,13 +867,13 @@
         <v>3.09</v>
       </c>
       <c r="D2" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E2" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F2" t="n">
-        <v>81.7176870748299</v>
+        <v>81.890365448505</v>
       </c>
     </row>
     <row r="3">
@@ -881,13 +887,13 @@
         <v>-2.949</v>
       </c>
       <c r="D3" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E3" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F3" t="n">
-        <v>72.7480620155039</v>
+        <v>75.5931558935361</v>
       </c>
     </row>
     <row r="4">
@@ -901,13 +907,13 @@
         <v>2.957</v>
       </c>
       <c r="D4" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2512315270936</v>
+        <v>53.5194174757282</v>
       </c>
     </row>
     <row r="5">
@@ -921,13 +927,13 @@
         <v>2.675</v>
       </c>
       <c r="D5" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>45.0666666666667</v>
+        <v>47.2226720647773</v>
       </c>
     </row>
     <row r="6">
@@ -941,13 +947,13 @@
         <v>2.783</v>
       </c>
       <c r="D6" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>40.9645390070922</v>
+        <v>41.9586206896552</v>
       </c>
     </row>
     <row r="7">
@@ -958,16 +964,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.753</v>
+        <v>2.62</v>
       </c>
       <c r="D7" t="n">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F7" t="n">
-        <v>35.7567567567568</v>
+        <v>37.3271889400922</v>
       </c>
     </row>
     <row r="8">
@@ -978,16 +984,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.62</v>
+        <v>2.753</v>
       </c>
       <c r="D8" t="n">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="E8" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F8" t="n">
-        <v>35.3875598086124</v>
+        <v>35.4375</v>
       </c>
     </row>
     <row r="9">
@@ -998,16 +1004,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.655</v>
+        <v>2.721</v>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>28.8712871287129</v>
+        <v>30.6159420289855</v>
       </c>
     </row>
     <row r="10">
@@ -1018,16 +1024,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2.857</v>
+        <v>-2.655</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="n">
-        <v>28.5</v>
+        <v>30.1538461538462</v>
       </c>
     </row>
     <row r="11">
@@ -1038,16 +1044,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2.721</v>
+        <v>2.857</v>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" t="n">
-        <v>28.1893939393939</v>
+        <v>28.5084745762712</v>
       </c>
     </row>
     <row r="12">
@@ -1061,13 +1067,13 @@
         <v>3.328</v>
       </c>
       <c r="D12" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" t="n">
-        <v>26.912</v>
+        <v>27.6269841269841</v>
       </c>
     </row>
     <row r="13">
@@ -1081,13 +1087,13 @@
         <v>-3.082</v>
       </c>
       <c r="D13" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E13" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" t="n">
-        <v>25.6266666666667</v>
+        <v>26.7712418300654</v>
       </c>
     </row>
     <row r="14">
@@ -1101,13 +1107,13 @@
         <v>-2.818</v>
       </c>
       <c r="D14" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
-        <v>25.2525252525253</v>
+        <v>26.5098039215686</v>
       </c>
     </row>
     <row r="15">
@@ -1121,13 +1127,13 @@
         <v>2.851</v>
       </c>
       <c r="D15" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n">
-        <v>23.6842105263158</v>
+        <v>24.0064516129032</v>
       </c>
     </row>
     <row r="16">
@@ -1138,16 +1144,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>3.123</v>
+        <v>2.606</v>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>20.3380281690141</v>
+        <v>20.8356164383562</v>
       </c>
     </row>
     <row r="17">
@@ -1158,16 +1164,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2.697</v>
+        <v>2.591</v>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>19.758064516129</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="18">
@@ -1178,16 +1184,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>2.591</v>
+        <v>3.123</v>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>19.6122448979592</v>
+        <v>20.3380281690141</v>
       </c>
     </row>
     <row r="19">
@@ -1198,16 +1204,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>2.606</v>
+        <v>2.697</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>19.2816901408451</v>
+        <v>19.758064516129</v>
       </c>
     </row>
     <row r="20">
@@ -1221,13 +1227,13 @@
         <v>3.06</v>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>38</v>
       </c>
       <c r="F20" t="n">
-        <v>17.8271604938272</v>
+        <v>17.609756097561</v>
       </c>
     </row>
     <row r="21">
@@ -1241,13 +1247,13 @@
         <v>-2.623</v>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>15.2909090909091</v>
+        <v>15.7894736842105</v>
       </c>
     </row>
     <row r="22">
@@ -1261,13 +1267,13 @@
         <v>3.122</v>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>14.45</v>
+        <v>14.7590361445783</v>
       </c>
     </row>
     <row r="23">
@@ -1281,13 +1287,13 @@
         <v>-2.681</v>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>14.0625</v>
+        <v>14.3432835820896</v>
       </c>
     </row>
     <row r="24">
@@ -1341,13 +1347,13 @@
         <v>3.757</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>13.0909090909091</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="27">
@@ -1358,16 +1364,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.666</v>
+        <v>-2.786</v>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>11.7014925373134</v>
+        <v>11.8641975308642</v>
       </c>
     </row>
     <row r="28">
@@ -1378,16 +1384,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.786</v>
+        <v>-2.666</v>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
         <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>10.1818181818182</v>
+        <v>11.7014925373134</v>
       </c>
     </row>
     <row r="29">
@@ -1401,13 +1407,13 @@
         <v>2.621</v>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>10.0833333333333</v>
+        <v>10.7959183673469</v>
       </c>
     </row>
     <row r="30">
@@ -1418,16 +1424,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>2.841</v>
+        <v>2.659</v>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
-        <v>10.0277777777778</v>
+        <v>10.5125</v>
       </c>
     </row>
     <row r="31">
@@ -1438,16 +1444,16 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>2.659</v>
+        <v>2.841</v>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>9.92405063291139</v>
+        <v>10.0277777777778</v>
       </c>
     </row>
     <row r="32">
@@ -1461,13 +1467,13 @@
         <v>3.01</v>
       </c>
       <c r="D32" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>9.30232558139535</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="33">
@@ -1478,16 +1484,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>2.633</v>
+        <v>2.729</v>
       </c>
       <c r="D33" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F33" t="n">
-        <v>7.84</v>
+        <v>9.025</v>
       </c>
     </row>
     <row r="34">
@@ -1498,16 +1504,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>2.729</v>
+        <v>-3.706</v>
       </c>
       <c r="D34" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E34" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>7.60526315789474</v>
+        <v>8.57647058823529</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1524,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>2.722</v>
+        <v>2.953</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1538,16 +1544,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>2.953</v>
+        <v>2.633</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>7.11764705882353</v>
+        <v>7.53846153846154</v>
       </c>
     </row>
     <row r="37">
@@ -1558,16 +1564,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.706</v>
+        <v>2.722</v>
       </c>
       <c r="D37" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>7.02439024390244</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="38">
@@ -1578,16 +1584,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>2.976</v>
+        <v>-2.611</v>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F38" t="n">
-        <v>6.8936170212766</v>
+        <v>7.01449275362319</v>
       </c>
     </row>
     <row r="39">
@@ -1598,16 +1604,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.778</v>
+        <v>2.71</v>
       </c>
       <c r="D39" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>6.72222222222222</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1618,16 +1624,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.611</v>
+        <v>-3.046</v>
       </c>
       <c r="D40" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F40" t="n">
-        <v>6.58208955223881</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1638,16 +1644,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>2.71</v>
+        <v>2.976</v>
       </c>
       <c r="D41" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41" t="n">
-        <v>6.25925925925926</v>
+        <v>6.8936170212766</v>
       </c>
     </row>
     <row r="42">
@@ -1658,16 +1664,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.046</v>
+        <v>-2.778</v>
       </c>
       <c r="D42" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>6.25925925925926</v>
+        <v>6.72222222222222</v>
       </c>
     </row>
     <row r="43">
@@ -1738,16 +1744,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.906</v>
+        <v>2.955</v>
       </c>
       <c r="D46" t="n">
+        <v>32</v>
+      </c>
+      <c r="E46" t="n">
         <v>13</v>
       </c>
-      <c r="E46" t="n">
-        <v>8</v>
-      </c>
       <c r="F46" t="n">
-        <v>4.92307692307692</v>
+        <v>5.28125</v>
       </c>
     </row>
     <row r="47">
@@ -1758,16 +1764,16 @@
         <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>2.761</v>
+        <v>2.991</v>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>4.76190476190476</v>
+        <v>5.11363636363636</v>
       </c>
     </row>
     <row r="48">
@@ -1778,16 +1784,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>2.991</v>
+        <v>-2.906</v>
       </c>
       <c r="D48" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>4.55813953488372</v>
+        <v>4.92307692307692</v>
       </c>
     </row>
     <row r="49">
@@ -1798,16 +1804,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.65</v>
+        <v>2.761</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>4.26666666666667</v>
+        <v>4.76190476190476</v>
       </c>
     </row>
     <row r="50">
@@ -1818,16 +1824,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>2.955</v>
+        <v>-2.65</v>
       </c>
       <c r="D50" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>4.17241379310345</v>
+        <v>4.26666666666667</v>
       </c>
     </row>
     <row r="51">
@@ -1881,13 +1887,13 @@
         <v>2.768</v>
       </c>
       <c r="D53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>3.57142857142857</v>
+        <v>3.44827586206897</v>
       </c>
     </row>
     <row r="54">
@@ -1898,16 +1904,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>2.848</v>
+        <v>2.759</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>3.26666666666667</v>
+        <v>3.27272727272727</v>
       </c>
     </row>
     <row r="55">
@@ -1918,16 +1924,16 @@
         <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>3.21</v>
+        <v>2.848</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>3.2</v>
+        <v>3.26666666666667</v>
       </c>
     </row>
     <row r="56">
@@ -1938,16 +1944,16 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.684</v>
+        <v>3.21</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>3.125</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="57">
@@ -1958,16 +1964,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.324</v>
+        <v>-2.684</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="58">
@@ -1978,16 +1984,16 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.805</v>
+        <v>-3.324</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>2.72222222222222</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1998,16 +2004,16 @@
         <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>2.868</v>
+        <v>-2.805</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>2.66666666666667</v>
+        <v>2.72222222222222</v>
       </c>
     </row>
     <row r="60">
@@ -2018,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v>2.975</v>
+        <v>2.868</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -2038,16 +2044,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>2.759</v>
+        <v>-2.736</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>2.5</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -2058,16 +2064,16 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.78</v>
+        <v>2.975</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2.5</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="63">
@@ -2078,16 +2084,16 @@
         <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.686</v>
+        <v>2.763</v>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
-        <v>2.33333333333333</v>
+        <v>2.57142857142857</v>
       </c>
     </row>
     <row r="64">
@@ -2098,16 +2104,16 @@
         <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>3.16</v>
+        <v>-2.686</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>2.27272727272727</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -2118,16 +2124,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.697</v>
+        <v>3.16</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>2.25</v>
+        <v>2.27272727272727</v>
       </c>
     </row>
     <row r="66">
@@ -2138,16 +2144,16 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.259</v>
+        <v>-2.78</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>2.27272727272727</v>
       </c>
     </row>
     <row r="67">
@@ -2158,16 +2164,16 @@
         <v>7</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.994</v>
+        <v>-2.697</v>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="68">
@@ -2178,16 +2184,16 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>2.763</v>
+        <v>-3.259</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>1.92307692307692</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2198,16 +2204,16 @@
         <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.736</v>
+        <v>-2.994</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2398,16 +2404,16 @@
         <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.903</v>
+        <v>2.979</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="80">
@@ -2418,16 +2424,16 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>3.195</v>
+        <v>-2.903</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>0.571428571428571</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81">
@@ -2438,16 +2444,16 @@
         <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>2.979</v>
+        <v>2.97</v>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>0.529411764705882</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="82">
@@ -2458,16 +2464,16 @@
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.593</v>
+        <v>3.195</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="83">
@@ -2478,16 +2484,16 @@
         <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.867</v>
+        <v>2.775</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84">
@@ -2498,16 +2504,16 @@
         <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.669</v>
+        <v>-2.593</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -2518,16 +2524,16 @@
         <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.603</v>
+        <v>-2.867</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -2538,16 +2544,16 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>2.97</v>
+        <v>-2.669</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.166666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87">
@@ -2558,16 +2564,16 @@
         <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>3.184</v>
+        <v>-2.603</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88">
@@ -2578,16 +2584,16 @@
         <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>3.062</v>
+        <v>-2.623</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -2598,16 +2604,16 @@
         <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>2.965</v>
+        <v>-2.657</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="90">
@@ -2618,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>2.58</v>
+        <v>3.184</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2638,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>3.18</v>
+        <v>3.062</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2658,10 +2664,10 @@
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.623</v>
+        <v>2.965</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2678,7 +2684,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>3.208</v>
+        <v>2.58</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2698,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>3.049</v>
+        <v>3.18</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2718,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>3.273</v>
+        <v>3.208</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -2738,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>2.764</v>
+        <v>3.049</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -2758,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>3.85</v>
+        <v>3.273</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -2778,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>2.66</v>
+        <v>2.764</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2798,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2818,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.8</v>
+        <v>2.66</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2838,7 +2844,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>-3.009</v>
+        <v>2.78</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2858,10 +2864,10 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>-3.049</v>
+        <v>-2.8</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2878,10 +2884,10 @@
         <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>2.775</v>
+        <v>-3.009</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2898,10 +2904,10 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.68</v>
+        <v>-3.049</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2918,10 +2924,10 @@
         <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.657</v>
+        <v>-2.68</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3509,6 +3515,26 @@
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3526,10 +3552,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -3537,7 +3563,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -3545,7 +3571,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -3553,7 +3579,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -3561,7 +3587,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -3569,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -3577,7 +3603,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -3593,7 +3619,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -3609,12 +3635,12 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -3622,7 +3648,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -3630,7 +3656,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -3646,10 +3672,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -3657,7 +3683,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -3665,7 +3691,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -3673,7 +3699,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
@@ -3681,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -3689,20 +3715,20 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -3710,7 +3736,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -3718,7 +3744,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -3726,23 +3752,23 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
         <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -3750,7 +3776,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -3758,18 +3784,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
         <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
@@ -3777,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33">
@@ -3785,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
@@ -3793,7 +3819,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35">
@@ -3801,7 +3827,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -3809,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -3817,7 +3843,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38">
@@ -3825,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -3833,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -3841,7 +3867,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41">
@@ -3849,23 +3875,23 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
         <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -3873,111 +3899,111 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
         <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
         <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
         <v>12</v>
-      </c>
-      <c r="B48" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
         <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
         <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
         <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -3985,20 +4011,20 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -4009,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62">
@@ -4017,31 +4043,31 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
         <v>15</v>
-      </c>
-      <c r="B64" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
         <v>15</v>
-      </c>
-      <c r="B65" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -4049,7 +4075,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -4057,31 +4083,31 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
@@ -4089,7 +4115,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
@@ -4097,36 +4123,36 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -4134,26 +4160,26 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
         <v>17</v>
-      </c>
-      <c r="B77" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
         <v>18</v>
-      </c>
-      <c r="B79" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -4161,7 +4187,7 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -4169,23 +4195,23 @@
         <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" t="s">
         <v>19</v>
-      </c>
-      <c r="B83" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -4193,23 +4219,23 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" t="s">
         <v>20</v>
-      </c>
-      <c r="B86" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="87">
@@ -4217,164 +4243,164 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
         <v>21</v>
-      </c>
-      <c r="B90" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
         <v>24</v>
-      </c>
-      <c r="B101" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" t="s">
         <v>24</v>
-      </c>
-      <c r="B102" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
         <v>24</v>
-      </c>
-      <c r="B103" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s">
         <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
         <v>25</v>
@@ -4382,7 +4408,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
         <v>25</v>
@@ -4390,39 +4416,39 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" t="s">
         <v>25</v>
-      </c>
-      <c r="B109" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" t="s">
         <v>26</v>
-      </c>
-      <c r="B111" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
         <v>27</v>
@@ -4430,7 +4456,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
         <v>27</v>
@@ -4438,10 +4464,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
@@ -4449,7 +4475,7 @@
         <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
@@ -4457,15 +4483,15 @@
         <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119">
@@ -4473,7 +4499,7 @@
         <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
@@ -4481,20 +4507,20 @@
         <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
         <v>30</v>
@@ -4502,15 +4528,15 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -4518,23 +4544,23 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
         <v>31</v>
-      </c>
-      <c r="B125" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B127" t="s">
         <v>122</v>
@@ -4542,10 +4568,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129">
@@ -4553,15 +4579,15 @@
         <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
@@ -4569,20 +4595,20 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -4590,15 +4616,15 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
         <v>124</v>
@@ -4606,106 +4632,106 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B136" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B145" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149">
@@ -4713,7 +4739,7 @@
         <v>52</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
@@ -4721,12 +4747,12 @@
         <v>53</v>
       </c>
       <c r="B150" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B151" t="s">
         <v>54</v>
@@ -4734,26 +4760,26 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B152" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B154" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155">
@@ -4761,20 +4787,20 @@
         <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B157" t="s">
         <v>58</v>
@@ -4782,122 +4808,122 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="B158" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B159" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B161" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B162" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B163" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B165" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B166" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B168" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" t="s">
         <v>120</v>
-      </c>
-      <c r="B169" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" t="s">
         <v>120</v>
-      </c>
-      <c r="B170" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B171" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B172" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173">
@@ -4905,7 +4931,7 @@
         <v>121</v>
       </c>
       <c r="B173" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174">
@@ -4913,7 +4939,7 @@
         <v>121</v>
       </c>
       <c r="B174" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175">
@@ -4921,7 +4947,7 @@
         <v>121</v>
       </c>
       <c r="B175" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
@@ -4929,7 +4955,7 @@
         <v>121</v>
       </c>
       <c r="B176" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177">
@@ -4937,7 +4963,7 @@
         <v>121</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178">
@@ -4945,15 +4971,15 @@
         <v>121</v>
       </c>
       <c r="B178" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B179" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180">
@@ -4961,15 +4987,15 @@
         <v>121</v>
       </c>
       <c r="B180" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" t="s">
         <v>121</v>
-      </c>
-      <c r="B181" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="182">
@@ -4977,28 +5003,28 @@
         <v>121</v>
       </c>
       <c r="B182" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B183" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B184" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B185" t="s">
         <v>122</v>
@@ -5006,7 +5032,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B186" t="s">
         <v>122</v>
@@ -5014,7 +5040,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B187" t="s">
         <v>122</v>
@@ -5022,47 +5048,47 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>124</v>
+      </c>
+      <c r="B188" t="s">
         <v>122</v>
-      </c>
-      <c r="B188" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B189" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B190" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B191" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>151</v>
+      </c>
+      <c r="B192" t="s">
         <v>123</v>
-      </c>
-      <c r="B192" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B193" t="s">
         <v>123</v>
@@ -5078,18 +5104,18 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>146</v>
+      </c>
+      <c r="B195" t="s">
         <v>123</v>
-      </c>
-      <c r="B195" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B196" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197">
@@ -5097,12 +5123,12 @@
         <v>123</v>
       </c>
       <c r="B197" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B198" t="s">
         <v>123</v>
@@ -5113,15 +5139,15 @@
         <v>123</v>
       </c>
       <c r="B199" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>131</v>
+      </c>
+      <c r="B200" t="s">
         <v>123</v>
-      </c>
-      <c r="B200" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="201">
@@ -5129,36 +5155,36 @@
         <v>123</v>
       </c>
       <c r="B201" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B202" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B203" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>146</v>
+      </c>
+      <c r="B204" t="s">
         <v>124</v>
-      </c>
-      <c r="B204" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B205" t="s">
         <v>124</v>
@@ -5166,15 +5192,15 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B206" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B207" t="s">
         <v>124</v>
@@ -5182,15 +5208,15 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>143</v>
+      </c>
+      <c r="B208" t="s">
         <v>124</v>
-      </c>
-      <c r="B208" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B209" t="s">
         <v>124</v>
@@ -5198,23 +5224,23 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B210" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B211" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B212" t="s">
         <v>125</v>
@@ -5222,7 +5248,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B213" t="s">
         <v>125</v>
@@ -5230,7 +5256,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B214" t="s">
         <v>125</v>
@@ -5238,7 +5264,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B215" t="s">
         <v>125</v>
@@ -5246,7 +5272,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B216" t="s">
         <v>125</v>
@@ -5254,7 +5280,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B217" t="s">
         <v>125</v>
@@ -5262,7 +5288,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B218" t="s">
         <v>125</v>
@@ -5270,7 +5296,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B219" t="s">
         <v>125</v>
@@ -5278,7 +5304,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B220" t="s">
         <v>125</v>
@@ -5286,7 +5312,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B221" t="s">
         <v>125</v>
@@ -5294,23 +5320,23 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B222" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B223" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B224" t="s">
         <v>126</v>
@@ -5318,7 +5344,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B225" t="s">
         <v>126</v>
@@ -5326,7 +5352,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B226" t="s">
         <v>126</v>
@@ -5334,7 +5360,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B227" t="s">
         <v>126</v>
@@ -5342,7 +5368,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B228" t="s">
         <v>126</v>
@@ -5350,7 +5376,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B229" t="s">
         <v>126</v>
@@ -5358,7 +5384,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B230" t="s">
         <v>126</v>
@@ -5366,7 +5392,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B231" t="s">
         <v>126</v>
@@ -5374,7 +5400,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B232" t="s">
         <v>126</v>
@@ -5382,15 +5408,15 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>148</v>
+      </c>
+      <c r="B233" t="s">
         <v>126</v>
-      </c>
-      <c r="B233" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B234" t="s">
         <v>126</v>
@@ -5398,39 +5424,39 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B235" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B236" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B237" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B238" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B239" t="s">
         <v>127</v>
@@ -5438,31 +5464,31 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>135</v>
+      </c>
+      <c r="B240" t="s">
         <v>127</v>
-      </c>
-      <c r="B240" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B241" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B242" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B243" t="s">
         <v>128</v>
@@ -5473,20 +5499,20 @@
         <v>128</v>
       </c>
       <c r="B244" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B245" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B246" t="s">
         <v>125</v>
@@ -5494,7 +5520,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B247" t="s">
         <v>129</v>
@@ -5505,12 +5531,12 @@
         <v>129</v>
       </c>
       <c r="B248" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B249" t="s">
         <v>129</v>
@@ -5521,36 +5547,36 @@
         <v>129</v>
       </c>
       <c r="B250" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>159</v>
+      </c>
+      <c r="B251" t="s">
         <v>129</v>
-      </c>
-      <c r="B251" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B252" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B253" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B254" t="s">
         <v>130</v>
@@ -5558,39 +5584,39 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>140</v>
+      </c>
+      <c r="B255" t="s">
         <v>130</v>
-      </c>
-      <c r="B255" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
+        <v>135</v>
+      </c>
+      <c r="B256" t="s">
         <v>130</v>
-      </c>
-      <c r="B256" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B257" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B258" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B259" t="s">
         <v>131</v>
@@ -5601,12 +5627,12 @@
         <v>131</v>
       </c>
       <c r="B260" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B261" t="s">
         <v>131</v>
@@ -5614,34 +5640,34 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B262" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
+        <v>120</v>
+      </c>
+      <c r="B263" t="s">
         <v>131</v>
-      </c>
-      <c r="B263" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
+        <v>140</v>
+      </c>
+      <c r="B264" t="s">
         <v>131</v>
-      </c>
-      <c r="B264" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B265" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="266">
@@ -5649,15 +5675,15 @@
         <v>131</v>
       </c>
       <c r="B266" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
+        <v>155</v>
+      </c>
+      <c r="B267" t="s">
         <v>131</v>
-      </c>
-      <c r="B267" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="268">
@@ -5665,28 +5691,28 @@
         <v>131</v>
       </c>
       <c r="B268" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B269" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B270" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B271" t="s">
         <v>132</v>
@@ -5694,23 +5720,23 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B272" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B273" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B274" t="s">
         <v>133</v>
@@ -5718,135 +5744,135 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B275" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B276" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B277" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B278" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B279" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B280" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B281" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B282" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B283" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B284" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B285" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B286" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B287" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B288" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
+        <v>142</v>
+      </c>
+      <c r="B289" t="s">
         <v>134</v>
-      </c>
-      <c r="B289" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
+        <v>161</v>
+      </c>
+      <c r="B290" t="s">
         <v>134</v>
-      </c>
-      <c r="B290" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B291" t="s">
         <v>134</v>
@@ -5854,87 +5880,87 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B292" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B293" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B294" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B295" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>135</v>
+      </c>
+      <c r="B296" t="s">
         <v>134</v>
-      </c>
-      <c r="B296" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B297" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B298" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B299" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B300" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B301" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B302" t="s">
         <v>135</v>
@@ -5942,34 +5968,34 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B303" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
+        <v>133</v>
+      </c>
+      <c r="B304" t="s">
         <v>135</v>
-      </c>
-      <c r="B304" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B305" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B306" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="307">
@@ -5977,7 +6003,7 @@
         <v>136</v>
       </c>
       <c r="B307" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="308">
@@ -5985,7 +6011,7 @@
         <v>136</v>
       </c>
       <c r="B308" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="309">
@@ -5993,119 +6019,119 @@
         <v>136</v>
       </c>
       <c r="B309" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B310" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B311" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B312" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B313" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B314" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B315" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B316" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B317" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B318" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B319" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B320" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B321" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B322" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B323" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="324">
@@ -6113,23 +6139,23 @@
         <v>137</v>
       </c>
       <c r="B324" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B325" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B326" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="327">
@@ -6142,63 +6168,63 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B328" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B329" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B330" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B331" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B332" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B333" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B334" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B335" t="s">
         <v>139</v>
@@ -6206,42 +6232,42 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
+        <v>135</v>
+      </c>
+      <c r="B336" t="s">
         <v>139</v>
-      </c>
-      <c r="B336" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
+        <v>123</v>
+      </c>
+      <c r="B337" t="s">
         <v>139</v>
-      </c>
-      <c r="B337" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B338" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B339" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B340" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="341">
@@ -6249,7 +6275,7 @@
         <v>140</v>
       </c>
       <c r="B341" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="342">
@@ -6257,15 +6283,15 @@
         <v>140</v>
       </c>
       <c r="B342" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B343" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="344">
@@ -6273,47 +6299,47 @@
         <v>140</v>
       </c>
       <c r="B344" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B345" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B346" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B347" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B348" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B349" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="350">
@@ -6321,15 +6347,15 @@
         <v>141</v>
       </c>
       <c r="B350" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B351" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="352">
@@ -6337,108 +6363,108 @@
         <v>141</v>
       </c>
       <c r="B352" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B353" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B354" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B355" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B356" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B357" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B358" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B359" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B360" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B361" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B362" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B363" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B364" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B365" t="s">
         <v>142</v>
@@ -6449,7 +6475,7 @@
         <v>142</v>
       </c>
       <c r="B366" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="367">
@@ -6457,108 +6483,108 @@
         <v>142</v>
       </c>
       <c r="B367" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B368" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B369" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B370" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B371" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B372" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B373" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B374" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B375" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B376" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B377" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B378" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B379" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B380" t="s">
         <v>143</v>
@@ -6566,130 +6592,130 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B381" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B382" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B383" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B384" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B385" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B386" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B387" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B388" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B389" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B390" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B391" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B392" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B393" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B394" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B395" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B396" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397">
@@ -6697,7 +6723,7 @@
         <v>146</v>
       </c>
       <c r="B397" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="398">
@@ -6705,68 +6731,68 @@
         <v>146</v>
       </c>
       <c r="B398" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B399" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B400" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B401" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B402" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B403" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B404" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B405" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B406" t="s">
         <v>147</v>
@@ -6774,111 +6800,111 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
+        <v>142</v>
+      </c>
+      <c r="B407" t="s">
         <v>147</v>
-      </c>
-      <c r="B407" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
+        <v>155</v>
+      </c>
+      <c r="B408" t="s">
         <v>147</v>
-      </c>
-      <c r="B408" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
+        <v>139</v>
+      </c>
+      <c r="B409" t="s">
         <v>147</v>
-      </c>
-      <c r="B409" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B410" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B411" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B412" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B413" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B414" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B415" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B416" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B417" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B418" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B419" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B420" t="s">
         <v>148</v>
@@ -6886,7 +6912,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B421" t="s">
         <v>148</v>
@@ -6894,10 +6920,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B422" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="423">
@@ -6905,76 +6931,76 @@
         <v>148</v>
       </c>
       <c r="B423" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B424" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B425" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B426" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B427" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B428" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B429" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B430" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B431" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="B432" t="s">
         <v>149</v>
@@ -6982,50 +7008,50 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
+        <v>123</v>
+      </c>
+      <c r="B433" t="s">
         <v>149</v>
-      </c>
-      <c r="B433" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
+        <v>139</v>
+      </c>
+      <c r="B434" t="s">
         <v>149</v>
-      </c>
-      <c r="B434" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
+        <v>143</v>
+      </c>
+      <c r="B435" t="s">
         <v>149</v>
-      </c>
-      <c r="B435" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B436" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B437" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
+        <v>150</v>
+      </c>
+      <c r="B438" t="s">
         <v>149</v>
-      </c>
-      <c r="B438" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="439">
@@ -7033,7 +7059,7 @@
         <v>150</v>
       </c>
       <c r="B439" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="440">
@@ -7041,7 +7067,7 @@
         <v>150</v>
       </c>
       <c r="B440" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="441">
@@ -7049,7 +7075,7 @@
         <v>150</v>
       </c>
       <c r="B441" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="442">
@@ -7057,23 +7083,23 @@
         <v>150</v>
       </c>
       <c r="B442" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B443" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B444" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="445">
@@ -7081,15 +7107,15 @@
         <v>151</v>
       </c>
       <c r="B445" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B446" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="447">
@@ -7097,76 +7123,76 @@
         <v>151</v>
       </c>
       <c r="B447" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B448" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B449" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B450" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B451" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B452" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B453" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B454" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B455" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B456" t="s">
         <v>152</v>
@@ -7174,18 +7200,18 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B457" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B458" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="459">
@@ -7193,63 +7219,63 @@
         <v>152</v>
       </c>
       <c r="B459" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B460" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B461" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B462" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B463" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B464" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B465" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B466" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="467">
@@ -7257,15 +7283,15 @@
         <v>153</v>
       </c>
       <c r="B467" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B468" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="469">
@@ -7273,60 +7299,60 @@
         <v>153</v>
       </c>
       <c r="B469" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B470" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B471" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B472" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B473" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B474" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B475" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B476" t="s">
         <v>154</v>
@@ -7334,15 +7360,15 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
+        <v>123</v>
+      </c>
+      <c r="B477" t="s">
         <v>154</v>
-      </c>
-      <c r="B477" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B478" t="s">
         <v>154</v>
@@ -7350,15 +7376,15 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
+        <v>137</v>
+      </c>
+      <c r="B479" t="s">
         <v>154</v>
-      </c>
-      <c r="B479" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B480" t="s">
         <v>155</v>
@@ -7366,18 +7392,18 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B481" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B482" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="483">
@@ -7385,7 +7411,7 @@
         <v>155</v>
       </c>
       <c r="B483" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="484">
@@ -7393,15 +7419,15 @@
         <v>155</v>
       </c>
       <c r="B484" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B485" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="486">
@@ -7409,79 +7435,79 @@
         <v>155</v>
       </c>
       <c r="B486" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B487" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B488" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B489" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B490" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B491" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B492" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B493" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B494" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B495" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="496">
@@ -7489,212 +7515,212 @@
         <v>157</v>
       </c>
       <c r="B496" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B497" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B498" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B499" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B500" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B501" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B502" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B503" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B504" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B505" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B506" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B507" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B508" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B509" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B510" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B511" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B512" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B513" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B514" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B515" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B516" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B517" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B518" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
+        <v>159</v>
+      </c>
+      <c r="B519" t="s">
         <v>155</v>
-      </c>
-      <c r="B519" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B520" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B521" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B522" t="s">
         <v>158</v>
@@ -7702,58 +7728,130 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B523" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B524" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B525" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B526" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B527" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B528" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
+        <v>144</v>
+      </c>
+      <c r="B529" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>142</v>
+      </c>
+      <c r="B530" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>151</v>
+      </c>
+      <c r="B531" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>126</v>
+      </c>
+      <c r="B532" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>161</v>
+      </c>
+      <c r="B533" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>161</v>
+      </c>
+      <c r="B534" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>161</v>
+      </c>
+      <c r="B535" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>161</v>
+      </c>
+      <c r="B536" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>156</v>
+      </c>
+      <c r="B537" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
         <v>129</v>
       </c>
-      <c r="B529" t="s">
-        <v>159</v>
+      <c r="B538" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
